--- a/artfynd/A 9320-2025 artfynd.xlsx
+++ b/artfynd/A 9320-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>122924806</v>
       </c>
       <c r="B2" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>122924906</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>122925010</v>
       </c>
       <c r="B4" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>123547348</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>123560721</v>
       </c>
       <c r="B19" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
